--- a/assets/tables/2021-09-06-Tables.xlsx
+++ b/assets/tables/2021-09-06-Tables.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Documents\Thesis\thesis_presentation\assets\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1EA260-DBA3-4001-BFB8-49BD3347AD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF32722-058A-4CF1-8F03-4E450B9F4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{67A94AEB-F11C-4AB3-B28A-F49A4C301124}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67A94AEB-F11C-4AB3-B28A-F49A4C301124}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Model Fit" sheetId="2" r:id="rId2"/>
-    <sheet name="Participant Characteristics" sheetId="3" r:id="rId3"/>
-    <sheet name="Participant Characteristics Lon" sheetId="4" r:id="rId4"/>
-    <sheet name="Ttest" sheetId="6" r:id="rId5"/>
-    <sheet name="PCorr" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Participant Characteristics" sheetId="3" r:id="rId4"/>
+    <sheet name="Participant Characteristics Lon" sheetId="4" r:id="rId5"/>
+    <sheet name="Ttest" sheetId="6" r:id="rId6"/>
+    <sheet name="PCorr" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="465">
   <si>
     <t>Population</t>
   </si>
@@ -1416,13 +1417,34 @@
   </si>
   <si>
     <t>Intercorrelations between Factors</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Sensory</t>
+  </si>
+  <si>
+    <t>RRBs</t>
+  </si>
+  <si>
+    <t>Social Communication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,8 +1500,28 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,8 +1600,62 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3F4077"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE77E24"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE5F57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF47A5A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB715"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60AD45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34444F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF125C83"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1612,11 +1708,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1772,6 +1888,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1811,18 +1939,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1851,6 +1979,90 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1861,15 +2073,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF125C83"/>
+      <color rgb="FF34444F"/>
+      <color rgb="FF60AD45"/>
+      <color rgb="FFFDB715"/>
+      <color rgb="FF47A5A2"/>
+      <color rgb="FFCE5F57"/>
+      <color rgb="FFE77E24"/>
+      <color rgb="FF3F4077"/>
+      <color rgb="FF58595B"/>
       <color rgb="FFE25656"/>
-      <color rgb="FF4B7AA9"/>
-      <color rgb="FFFDB816"/>
-      <color rgb="FF58595B"/>
-      <color rgb="FF8798A9"/>
-      <color rgb="FF718DA9"/>
-      <color rgb="FFE29494"/>
-      <color rgb="FFFDE3A7"/>
-      <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2225,10 +2438,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2251,8 +2464,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2273,8 +2486,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2295,8 +2508,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2317,8 +2530,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2339,8 +2552,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2361,8 +2574,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2383,8 +2596,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2405,8 +2618,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2427,8 +2640,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2449,8 +2662,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2471,8 +2684,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2493,8 +2706,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="62"/>
+      <c r="B14" s="59" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2517,8 +2730,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2539,8 +2752,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2561,8 +2774,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2583,8 +2796,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2605,8 +2818,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2627,8 +2840,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2649,8 +2862,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2671,8 +2884,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2693,8 +2906,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2717,8 +2930,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2739,8 +2952,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2761,8 +2974,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2783,10 +2996,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2809,8 +3022,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2831,8 +3044,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2853,8 +3066,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
@@ -2875,8 +3088,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
@@ -2897,8 +3110,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2919,8 +3132,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="63" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2943,8 +3156,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2965,8 +3178,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
       <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
@@ -2987,8 +3200,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3009,8 +3222,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
@@ -3031,8 +3244,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
@@ -3053,8 +3266,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3075,8 +3288,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="55" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3099,8 +3312,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
@@ -3121,8 +3334,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="59"/>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
@@ -3143,7 +3356,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="63" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3169,8 +3382,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="55" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="59" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3193,8 +3406,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="55"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
@@ -3215,8 +3428,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="55" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3239,8 +3452,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
@@ -3261,8 +3474,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
@@ -3283,8 +3496,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
@@ -3305,7 +3518,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3331,7 +3544,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
@@ -3355,7 +3568,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3402,7 +3615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E99939-21DF-48E1-AB6C-F8CCC5640EA0}">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -3449,7 +3662,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -3481,7 +3694,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="50" t="s">
         <v>20</v>
       </c>
@@ -3511,7 +3724,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="53" t="s">
         <v>24</v>
       </c>
@@ -3541,7 +3754,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="50" t="s">
@@ -3573,7 +3786,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="53" t="s">
         <v>20</v>
       </c>
@@ -3603,7 +3816,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="50" t="s">
         <v>24</v>
       </c>
@@ -3633,7 +3846,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="67" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="53" t="s">
@@ -3665,7 +3878,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="50" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +3908,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="53" t="s">
         <v>24</v>
       </c>
@@ -3725,7 +3938,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="68" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -3757,7 +3970,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="53" t="s">
         <v>20</v>
       </c>
@@ -3787,7 +4000,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="54" t="s">
         <v>24</v>
       </c>
@@ -3829,6 +4042,336 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C045C98C-B146-4A5F-AB5E-1062B855F95C}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="6" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="98"/>
+      <c r="B3" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="99"/>
+      <c r="B4" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="104" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="106"/>
+      <c r="B11" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="107" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="96" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="108"/>
+      <c r="B16" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B76B51-2917-4027-BB6A-8A15D39E82A2}">
   <dimension ref="A1:AF14"/>
   <sheetViews>
@@ -3854,66 +4397,66 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66" t="s">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66" t="s">
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66" t="s">
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66" t="s">
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66" t="s">
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="66"/>
+      <c r="AF1" s="70"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4014,7 +4557,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4112,7 +4655,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
@@ -4208,7 +4751,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
@@ -4304,7 +4847,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -4402,7 +4945,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
@@ -4498,7 +5041,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
@@ -4594,7 +5137,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="70" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4692,7 +5235,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
@@ -4788,7 +5331,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
@@ -4884,7 +5427,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="70" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -4982,7 +5525,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -5078,7 +5621,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
@@ -5175,6 +5718,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="AA1:AB1"/>
@@ -5191,15 +5737,12 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9C7552-9812-4D5B-8A82-1CCD801D489C}">
   <dimension ref="A1:N41"/>
   <sheetViews>
@@ -5215,22 +5758,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="41"/>
@@ -5240,26 +5783,26 @@
       <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="75" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -5304,7 +5847,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="72" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -5348,7 +5891,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
@@ -5390,7 +5933,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="72" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -5434,7 +5977,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="18" t="s">
         <v>42</v>
       </c>
@@ -5476,7 +6019,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="72" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -5520,7 +6063,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -5562,7 +6105,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="72" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -5606,7 +6149,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
@@ -5648,7 +6191,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -5692,7 +6235,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
@@ -5734,7 +6277,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -5778,7 +6321,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
@@ -5820,7 +6363,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -5864,7 +6407,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
@@ -5906,7 +6449,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -5950,7 +6493,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="18" t="s">
         <v>42</v>
       </c>
@@ -5992,7 +6535,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -6036,7 +6579,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
@@ -6078,7 +6621,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -6122,7 +6665,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="18" t="s">
         <v>42</v>
       </c>
@@ -6164,7 +6707,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="72" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -6208,7 +6751,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
@@ -6250,7 +6793,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="72" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -6294,7 +6837,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="18" t="s">
         <v>42</v>
       </c>
@@ -6336,7 +6879,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="72" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -6380,7 +6923,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="18" t="s">
         <v>42</v>
       </c>
@@ -6422,7 +6965,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="72" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -6466,7 +7009,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="18" t="s">
         <v>42</v>
       </c>
@@ -6508,7 +7051,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="72" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -6552,7 +7095,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="14" t="s">
         <v>42</v>
       </c>
@@ -6601,18 +7144,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -6621,6 +7152,18 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6630,7 +7173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACAEB54-38B6-4D26-A3F2-5A9F9A2408BC}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -6646,18 +7189,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
@@ -6703,7 +7246,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -6735,7 +7278,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
@@ -6765,7 +7308,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="46" t="s">
         <v>21</v>
       </c>
@@ -6795,7 +7338,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
@@ -6825,7 +7368,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="48" t="s">
         <v>25</v>
       </c>
@@ -6855,7 +7398,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="83" t="s">
         <v>422</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -6887,7 +7430,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="46" t="s">
         <v>17</v>
       </c>
@@ -6917,7 +7460,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="46" t="s">
         <v>21</v>
       </c>
@@ -6947,7 +7490,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="46" t="s">
         <v>23</v>
       </c>
@@ -6977,7 +7520,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="49" t="s">
         <v>25</v>
       </c>
@@ -7022,7 +7565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0067618-65A0-426E-BFC5-BE1E689FD660}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -7036,24 +7579,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>

--- a/assets/tables/2021-09-06-Tables.xlsx
+++ b/assets/tables/2021-09-06-Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Documents\Thesis\thesis_presentation\assets\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF32722-058A-4CF1-8F03-4E450B9F4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1824AE64-0F95-4C30-B57E-7959C540D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{67A94AEB-F11C-4AB3-B28A-F49A4C301124}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{67A94AEB-F11C-4AB3-B28A-F49A4C301124}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant Parameters" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="466">
   <si>
     <t>Population</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>Social Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> β</t>
   </si>
 </sst>
 </file>
@@ -1732,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,15 +1882,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,6 +1894,69 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1915,23 +1972,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1945,24 +2008,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1981,88 +2044,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2393,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91BA6C6-4BDC-445B-96BA-58369142A279}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G111" sqref="A83:G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,10 +2472,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="79" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2464,8 +2498,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2486,8 +2520,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2508,8 +2542,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2530,8 +2564,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2552,8 +2586,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2574,8 +2608,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2596,8 +2630,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2618,8 +2652,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2640,8 +2674,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2662,8 +2696,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2684,8 +2718,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2706,8 +2740,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2730,8 +2764,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2752,8 +2786,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2774,8 +2808,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2796,8 +2830,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2818,8 +2852,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="62"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2840,8 +2874,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2862,8 +2896,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2884,8 +2918,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2906,8 +2940,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="81" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2930,8 +2964,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2952,8 +2986,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2974,8 +3008,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -2996,10 +3030,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="81" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3022,8 +3056,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
@@ -3044,8 +3078,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3066,8 +3100,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
@@ -3088,8 +3122,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3110,8 +3144,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3132,8 +3166,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63" t="s">
+      <c r="A33" s="81"/>
+      <c r="B33" s="81" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3156,8 +3190,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3178,8 +3212,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
@@ -3200,8 +3234,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3222,8 +3256,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
@@ -3244,8 +3278,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
       <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
@@ -3266,8 +3300,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3288,8 +3322,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="59" t="s">
+      <c r="A40" s="81"/>
+      <c r="B40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3312,8 +3346,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="77"/>
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
@@ -3334,8 +3368,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="77"/>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
@@ -3356,7 +3390,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="81" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3382,8 +3416,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="59" t="s">
+      <c r="A44" s="81"/>
+      <c r="B44" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3406,8 +3440,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="77"/>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
@@ -3428,8 +3462,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="59" t="s">
+      <c r="A46" s="81"/>
+      <c r="B46" s="77" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3452,8 +3486,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
@@ -3474,8 +3508,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
@@ -3496,8 +3530,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3552,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="77" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3544,7 +3578,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
@@ -3568,7 +3602,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3591,8 +3625,1055 @@
         <v>4.1900000000000001E-3</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="42">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="F57" s="42">
+        <v>-5.12</v>
+      </c>
+      <c r="G57" s="116">
+        <v>2.9900000000000002E-7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="117"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="42">
+        <v>-0.17100000000000001</v>
+      </c>
+      <c r="F58" s="42">
+        <v>-3.63</v>
+      </c>
+      <c r="G58" s="116">
+        <v>2.7900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="42">
+        <v>0.18</v>
+      </c>
+      <c r="F59" s="42">
+        <v>3.9</v>
+      </c>
+      <c r="G59" s="116">
+        <v>9.6799999999999995E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="117"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="42">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F60" s="42">
+        <v>2.92</v>
+      </c>
+      <c r="G60" s="116">
+        <v>3.47E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="42">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F61" s="42">
+        <v>5.72</v>
+      </c>
+      <c r="G61" s="116">
+        <v>1.07E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="117"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="42">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F62" s="42">
+        <v>2.58</v>
+      </c>
+      <c r="G62" s="116">
+        <v>9.8200000000000006E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="117"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="42">
+        <v>-0.221</v>
+      </c>
+      <c r="F63" s="42">
+        <v>-4.2300000000000004</v>
+      </c>
+      <c r="G63" s="116">
+        <v>2.34E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="117"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="42">
+        <v>-0.218</v>
+      </c>
+      <c r="F64" s="42">
+        <v>-4.7699999999999996</v>
+      </c>
+      <c r="G64" s="116">
+        <v>1.81E-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="117"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="42">
+        <v>0.182</v>
+      </c>
+      <c r="F65" s="42">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G65" s="116">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="117"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="42">
+        <v>0.107</v>
+      </c>
+      <c r="F66" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="G66" s="42">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="117"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="42">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F67" s="42">
+        <v>3.87</v>
+      </c>
+      <c r="G67" s="116">
+        <v>1.08E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="117"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="42">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="F68" s="42">
+        <v>2.91</v>
+      </c>
+      <c r="G68" s="116">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="117"/>
+      <c r="B69" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="42">
+        <v>-0.19700000000000001</v>
+      </c>
+      <c r="F69" s="42">
+        <v>-3.54</v>
+      </c>
+      <c r="G69" s="116">
+        <v>4.0299999999999998E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="117"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="42">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="F70" s="42">
+        <v>-4.71</v>
+      </c>
+      <c r="G70" s="116">
+        <v>2.4499999999999998E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="117"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="42">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F71" s="42">
+        <v>4.99</v>
+      </c>
+      <c r="G71" s="116">
+        <v>5.8899999999999999E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="117"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="42">
+        <v>-8.3199999999999996E-2</v>
+      </c>
+      <c r="F72" s="42">
+        <v>-2.17</v>
+      </c>
+      <c r="G72" s="42">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="117"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="42">
+        <v>0.123</v>
+      </c>
+      <c r="F73" s="42">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G73" s="42">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="117"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="42">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="F74" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="G74" s="116">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="117"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="42">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="F75" s="42">
+        <v>-5.79</v>
+      </c>
+      <c r="G75" s="116">
+        <v>6.8800000000000002E-9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="117"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="42">
+        <v>0.37</v>
+      </c>
+      <c r="F76" s="42">
+        <v>7.01</v>
+      </c>
+      <c r="G76" s="116">
+        <v>2.38E-12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="117"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="117"/>
+      <c r="D77" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="42">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F77" s="42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G77" s="116">
+        <v>9.6899999999999996E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="117"/>
+      <c r="B78" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="F78" s="42">
+        <v>-4.59</v>
+      </c>
+      <c r="G78" s="116">
+        <v>4.3800000000000004E-6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="117"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="42">
+        <v>2.85</v>
+      </c>
+      <c r="G79" s="116">
+        <v>4.3299999999999996E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="117"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="42">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F80" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="G80" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="117"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="117"/>
+      <c r="D81" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="42">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F81" s="42">
+        <v>11.4</v>
+      </c>
+      <c r="G81" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="118" t="s">
+        <v>465</v>
+      </c>
+      <c r="F83" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="F84" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="G84" s="116">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="117"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="42">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="F85" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="G85" s="42">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="117"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="42">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F86" s="42">
+        <v>4.47</v>
+      </c>
+      <c r="G86" s="116">
+        <v>7.9400000000000002E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="117"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="42">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="F87" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="G87" s="116">
+        <v>9.9600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="117"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="42">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="F88" s="42">
+        <v>-3</v>
+      </c>
+      <c r="G88" s="116">
+        <v>2.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="117"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="42">
+        <v>0.158</v>
+      </c>
+      <c r="F89" s="42">
+        <v>3.05</v>
+      </c>
+      <c r="G89" s="116">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="117"/>
+      <c r="B90" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="42">
+        <v>-0.189</v>
+      </c>
+      <c r="F90" s="42">
+        <v>-2.84</v>
+      </c>
+      <c r="G90" s="116">
+        <v>4.5399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="117"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E91" s="42">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F91" s="42">
+        <v>2.46</v>
+      </c>
+      <c r="G91" s="42">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="117"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="42">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="F92" s="42">
+        <v>-3.22</v>
+      </c>
+      <c r="G92" s="116">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="117"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="42">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F93" s="42">
+        <v>4.68</v>
+      </c>
+      <c r="G93" s="116">
+        <v>2.9399999999999998E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="117"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="42">
+        <v>-0.192</v>
+      </c>
+      <c r="F94" s="42">
+        <v>-3.89</v>
+      </c>
+      <c r="G94" s="116">
+        <v>1.02E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="117"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="117"/>
+      <c r="D95" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="42">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F95" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="G95" s="116">
+        <v>4.18E-11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="117"/>
+      <c r="B96" s="117"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="42">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F96" s="42">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="G96" s="116">
+        <v>3.4100000000000002E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="117"/>
+      <c r="B97" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="42">
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="F97" s="42">
+        <v>-4.68</v>
+      </c>
+      <c r="G97" s="116">
+        <v>2.83E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="117"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="42">
+        <v>0.307</v>
+      </c>
+      <c r="F98" s="42">
+        <v>6.54</v>
+      </c>
+      <c r="G98" s="116">
+        <v>5.9800000000000003E-11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="117"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="42">
+        <v>0.307</v>
+      </c>
+      <c r="F99" s="42">
+        <v>6.66</v>
+      </c>
+      <c r="G99" s="116">
+        <v>2.8099999999999999E-11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="42">
+        <v>0.246</v>
+      </c>
+      <c r="F100" s="42">
+        <v>2.31</v>
+      </c>
+      <c r="G100" s="42">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="117"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="42">
+        <v>-0.45800000000000002</v>
+      </c>
+      <c r="F101" s="42">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="G101" s="116">
+        <v>4.9200000000000003E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="117"/>
+      <c r="B102" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="42">
+        <v>-0.36699999999999999</v>
+      </c>
+      <c r="F102" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="G102" s="42">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="117"/>
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="42">
+        <v>-0.52800000000000002</v>
+      </c>
+      <c r="F103" s="42">
+        <v>-3.34</v>
+      </c>
+      <c r="G103" s="116">
+        <v>8.52E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="117"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="42">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F104" s="42">
+        <v>3.86</v>
+      </c>
+      <c r="G104" s="116">
+        <v>1.13E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="117"/>
+      <c r="B105" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="42">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F105" s="42">
+        <v>2.66</v>
+      </c>
+      <c r="G105" s="116">
+        <v>7.8600000000000007E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="117"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" s="42">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F106" s="42">
+        <v>6.61</v>
+      </c>
+      <c r="G106" s="116">
+        <v>3.8799999999999998E-11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="117"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="42">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F107" s="42">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G107" s="116">
+        <v>1.22E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="117"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="117"/>
+      <c r="D108" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="42">
+        <v>-0.26</v>
+      </c>
+      <c r="F108" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="G108" s="42">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="120">
+        <v>-0.41</v>
+      </c>
+      <c r="F109" s="120">
+        <v>-3.61</v>
+      </c>
+      <c r="G109" s="121">
+        <v>3.0499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="119"/>
+      <c r="B110" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" s="120">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F110" s="120">
+        <v>4.78</v>
+      </c>
+      <c r="G110" s="121">
+        <v>1.7999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="122"/>
+      <c r="B111" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="122"/>
+      <c r="D111" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="123">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F111" s="123">
+        <v>2.84</v>
+      </c>
+      <c r="G111" s="124">
+        <v>4.4400000000000004E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="39">
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A57:A81"/>
+    <mergeCell ref="A84:A99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B57:B68"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B90:B96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B105:B108"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="B14:B22"/>
@@ -3613,15 +4694,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E99939-21DF-48E1-AB6C-F8CCC5640EA0}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -3662,372 +4743,375 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="110">
         <v>606</v>
       </c>
-      <c r="D3" s="52">
-        <v>56</v>
-      </c>
-      <c r="E3" s="52">
-        <v>138</v>
-      </c>
-      <c r="F3" s="52">
-        <v>2.46</v>
-      </c>
-      <c r="G3" s="52">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="H3" s="52">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I3" s="52">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="J3" s="52">
-        <v>0.96099999999999997</v>
+      <c r="D3" s="110">
+        <v>66</v>
+      </c>
+      <c r="E3" s="110">
+        <v>173</v>
+      </c>
+      <c r="F3" s="110">
+        <v>2.62</v>
+      </c>
+      <c r="G3" s="110">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="H3" s="110">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="I3" s="110">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="J3" s="110">
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="111">
         <v>380</v>
       </c>
-      <c r="D4" s="50">
-        <v>56</v>
-      </c>
-      <c r="E4" s="50">
-        <v>111</v>
-      </c>
-      <c r="F4" s="50">
-        <v>1.98</v>
-      </c>
-      <c r="G4" s="50">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="H4" s="50">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="I4" s="50">
+      <c r="D4" s="111">
+        <v>66</v>
+      </c>
+      <c r="E4" s="111">
+        <v>148</v>
+      </c>
+      <c r="F4" s="111">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G4" s="111">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="H4" s="111">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="I4" s="111">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="J4" s="111">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
+      <c r="B5" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="111">
+        <v>569</v>
+      </c>
+      <c r="D5" s="111">
+        <v>65</v>
+      </c>
+      <c r="E5" s="111">
+        <v>154</v>
+      </c>
+      <c r="F5" s="111">
+        <v>2.37</v>
+      </c>
+      <c r="G5" s="111">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="H5" s="111">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="111">
         <v>0.96</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J5" s="111">
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="53" t="s">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="111">
+        <v>349</v>
+      </c>
+      <c r="D6" s="111">
+        <v>66</v>
+      </c>
+      <c r="E6" s="111">
+        <v>81</v>
+      </c>
+      <c r="F6" s="111">
+        <v>1.23</v>
+      </c>
+      <c r="G6" s="111">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H6" s="111">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I6" s="111">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="J6" s="111">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="111">
+        <v>279</v>
+      </c>
+      <c r="D7" s="111">
+        <v>66</v>
+      </c>
+      <c r="E7" s="111">
+        <v>86.4</v>
+      </c>
+      <c r="F7" s="111">
+        <v>1.31</v>
+      </c>
+      <c r="G7" s="111">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="H7" s="111">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="I7" s="111">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="J7" s="111">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="53">
-        <v>569</v>
-      </c>
-      <c r="D5" s="53">
-        <v>55</v>
-      </c>
-      <c r="E5" s="53">
-        <v>122</v>
-      </c>
-      <c r="F5" s="53">
-        <v>2.21</v>
-      </c>
-      <c r="G5" s="53">
-        <v>4.6199999999999998E-2</v>
-      </c>
-      <c r="H5" s="53">
+      <c r="C8" s="111">
+        <v>318</v>
+      </c>
+      <c r="D8" s="111">
+        <v>65</v>
+      </c>
+      <c r="E8" s="111">
+        <v>66.3</v>
+      </c>
+      <c r="F8" s="111">
+        <v>1.02</v>
+      </c>
+      <c r="G8" s="111">
+        <v>7.8700000000000003E-3</v>
+      </c>
+      <c r="H8" s="111">
+        <v>0.999</v>
+      </c>
+      <c r="I8" s="111">
+        <v>0.998</v>
+      </c>
+      <c r="J8" s="111">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="111">
+        <v>103</v>
+      </c>
+      <c r="D9" s="111">
+        <v>66</v>
+      </c>
+      <c r="E9" s="111">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F9" s="111">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G9" s="111">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="H9" s="111">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I9" s="111">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="J9" s="111">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="108"/>
+      <c r="B10" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="111">
+        <v>44</v>
+      </c>
+      <c r="D10" s="111">
+        <v>66</v>
+      </c>
+      <c r="E10" s="111">
+        <v>33.9</v>
+      </c>
+      <c r="F10" s="111">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G10" s="111">
+        <v>0</v>
+      </c>
+      <c r="H10" s="111">
+        <v>1.31</v>
+      </c>
+      <c r="I10" s="111">
+        <v>1.47</v>
+      </c>
+      <c r="J10" s="111">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="108"/>
+      <c r="B11" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="111">
+        <v>105</v>
+      </c>
+      <c r="D11" s="111">
+        <v>65</v>
+      </c>
+      <c r="E11" s="111">
+        <v>71.2</v>
+      </c>
+      <c r="F11" s="111">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="111">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H11" s="111">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I11" s="111">
         <v>0.97699999999999998</v>
       </c>
-      <c r="I5" s="53">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="J11" s="111">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="50">
-        <v>349</v>
-      </c>
-      <c r="D6" s="50">
-        <v>56</v>
-      </c>
-      <c r="E6" s="50">
-        <v>60.5</v>
-      </c>
-      <c r="F6" s="50">
-        <v>1.08</v>
-      </c>
-      <c r="G6" s="50">
-        <v>1.52E-2</v>
-      </c>
-      <c r="H6" s="50">
-        <v>0.996</v>
-      </c>
-      <c r="I6" s="50">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="J6" s="50">
-        <v>0.94699999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="53" t="s">
+      <c r="C12" s="113">
+        <v>154</v>
+      </c>
+      <c r="D12" s="113">
+        <v>66</v>
+      </c>
+      <c r="E12" s="113">
+        <v>72.3</v>
+      </c>
+      <c r="F12" s="113">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G12" s="113">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12" s="113">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="I12" s="113">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J12" s="111">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="53">
-        <v>279</v>
-      </c>
-      <c r="D7" s="53">
-        <v>56</v>
-      </c>
-      <c r="E7" s="53">
-        <v>58.7</v>
-      </c>
-      <c r="F7" s="53">
-        <v>1.05</v>
-      </c>
-      <c r="G7" s="53">
-        <v>1.32E-2</v>
-      </c>
-      <c r="H7" s="53">
-        <v>0.997</v>
-      </c>
-      <c r="I7" s="53">
-        <v>0.996</v>
-      </c>
-      <c r="J7" s="53">
-        <v>0.94899999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="50" t="s">
+      <c r="C13" s="113">
+        <v>57</v>
+      </c>
+      <c r="D13" s="113">
+        <v>66</v>
+      </c>
+      <c r="E13" s="113">
+        <v>54.7</v>
+      </c>
+      <c r="F13" s="113">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="G13" s="113">
+        <v>0</v>
+      </c>
+      <c r="H13" s="113">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I13" s="113">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J13" s="111">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
+      <c r="B14" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="50">
-        <v>318</v>
-      </c>
-      <c r="D8" s="50">
-        <v>55</v>
-      </c>
-      <c r="E8" s="50">
-        <v>49.3</v>
-      </c>
-      <c r="F8" s="50">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="G8" s="50">
+      <c r="C14" s="115">
+        <v>146</v>
+      </c>
+      <c r="D14" s="115">
+        <v>65</v>
+      </c>
+      <c r="E14" s="115">
+        <v>62.2</v>
+      </c>
+      <c r="F14" s="115">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G14" s="115">
         <v>0</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H14" s="115">
         <v>1.01</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I14" s="115">
         <v>1.01</v>
       </c>
-      <c r="J8" s="50">
-        <v>0.94799999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="53">
-        <v>103</v>
-      </c>
-      <c r="D9" s="53">
-        <v>56</v>
-      </c>
-      <c r="E9" s="53">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F9" s="53">
-        <v>1.3</v>
-      </c>
-      <c r="G9" s="53">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="H9" s="53">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="I9" s="53">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="J9" s="53">
-        <v>0.83399999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="50">
-        <v>44</v>
-      </c>
-      <c r="D10" s="50">
-        <v>56</v>
-      </c>
-      <c r="E10" s="50">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F10" s="50">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="G10" s="50">
-        <v>0</v>
-      </c>
-      <c r="H10" s="50">
-        <v>1.23</v>
-      </c>
-      <c r="I10" s="50">
-        <v>1.36</v>
-      </c>
-      <c r="J10" s="50">
-        <v>0.82099999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="53">
-        <v>105</v>
-      </c>
-      <c r="D11" s="53">
-        <v>55</v>
-      </c>
-      <c r="E11" s="53">
-        <v>68.8</v>
-      </c>
-      <c r="F11" s="53">
-        <v>1.25</v>
-      </c>
-      <c r="G11" s="53">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="H11" s="53">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="I11" s="53">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="J11" s="53">
+      <c r="J14" s="112">
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="50">
-        <v>154</v>
-      </c>
-      <c r="D12" s="50">
-        <v>56</v>
-      </c>
-      <c r="E12" s="50">
-        <v>61.7</v>
-      </c>
-      <c r="F12" s="50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G12" s="50">
-        <v>2.58E-2</v>
-      </c>
-      <c r="H12" s="50">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="I12" s="50">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="J12" s="50">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="53">
-        <v>57</v>
-      </c>
-      <c r="D13" s="53">
-        <v>56</v>
-      </c>
-      <c r="E13" s="53">
-        <v>53.4</v>
-      </c>
-      <c r="F13" s="53">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="G13" s="53">
-        <v>0</v>
-      </c>
-      <c r="H13" s="53">
-        <v>1.02</v>
-      </c>
-      <c r="I13" s="53">
-        <v>1.03</v>
-      </c>
-      <c r="J13" s="53">
-        <v>0.73699999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="54">
-        <v>146</v>
-      </c>
-      <c r="D14" s="54">
-        <v>55</v>
-      </c>
-      <c r="E14" s="54">
-        <v>51.1</v>
-      </c>
-      <c r="F14" s="54">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G14" s="54">
-        <v>0</v>
-      </c>
-      <c r="H14" s="54">
-        <v>1.01</v>
-      </c>
-      <c r="I14" s="54">
-        <v>1.02</v>
-      </c>
-      <c r="J14" s="54">
-        <v>0.86</v>
-      </c>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4045,7 +5129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C045C98C-B146-4A5F-AB5E-1062B855F95C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -4057,304 +5141,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="55" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="83" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="58" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="58" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="60" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="67" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="62" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="69" t="s">
         <v>460</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="62" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="70" t="s">
         <v>461</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="62" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="62" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="64" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="60" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="66" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="95" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="66" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="66" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="95" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="66" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="89" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="60" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4397,66 +5481,66 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70" t="s">
+      <c r="J1" s="90"/>
+      <c r="K1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70" t="s">
+      <c r="L1" s="90"/>
+      <c r="M1" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70" t="s">
+      <c r="R1" s="90"/>
+      <c r="S1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70" t="s">
+      <c r="T1" s="90"/>
+      <c r="U1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70" t="s">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70" t="s">
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70" t="s">
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70" t="s">
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="70"/>
+      <c r="AF1" s="90"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4557,7 +5641,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4655,7 +5739,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
@@ -4751,7 +5835,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
@@ -4847,7 +5931,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -4945,7 +6029,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
@@ -5041,7 +6125,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
@@ -5137,7 +6221,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="90" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5235,7 +6319,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
@@ -5331,7 +6415,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
@@ -5427,7 +6511,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="90" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -5525,7 +6609,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -5621,7 +6705,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
@@ -5718,17 +6802,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A12:A14"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
@@ -5737,6 +6815,12 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5758,22 +6842,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="41"/>
@@ -5783,26 +6867,26 @@
       <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78" t="s">
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="79" t="s">
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -5847,7 +6931,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="92" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -5891,7 +6975,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
@@ -5933,7 +7017,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="92" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -5977,7 +7061,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="18" t="s">
         <v>42</v>
       </c>
@@ -6019,7 +7103,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -6063,7 +7147,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -6105,7 +7189,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="92" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -6149,7 +7233,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
@@ -6191,7 +7275,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -6235,7 +7319,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
@@ -6277,7 +7361,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="92" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -6321,7 +7405,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
@@ -6363,7 +7447,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="92" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -6407,7 +7491,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
@@ -6449,7 +7533,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="92" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -6493,7 +7577,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="18" t="s">
         <v>42</v>
       </c>
@@ -6535,7 +7619,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="92" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -6579,7 +7663,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
@@ -6621,7 +7705,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="92" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -6665,7 +7749,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="18" t="s">
         <v>42</v>
       </c>
@@ -6707,7 +7791,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -6751,7 +7835,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
@@ -6793,7 +7877,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -6837,7 +7921,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="18" t="s">
         <v>42</v>
       </c>
@@ -6879,7 +7963,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="92" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -6923,7 +8007,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="18" t="s">
         <v>42</v>
       </c>
@@ -6965,7 +8049,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="92" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -7009,7 +8093,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="18" t="s">
         <v>42</v>
       </c>
@@ -7051,7 +8135,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="92" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -7095,7 +8179,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="14" t="s">
         <v>42</v>
       </c>
@@ -7144,6 +8228,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -7152,18 +8244,10 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7178,7 +8262,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="J13" sqref="A3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7189,18 +8273,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
@@ -7246,7 +8330,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="100" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -7278,7 +8362,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
@@ -7308,7 +8392,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="46" t="s">
         <v>21</v>
       </c>
@@ -7338,7 +8422,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
@@ -7368,7 +8452,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="48" t="s">
         <v>25</v>
       </c>
@@ -7398,7 +8482,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="103" t="s">
         <v>422</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -7430,7 +8514,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="46" t="s">
         <v>17</v>
       </c>
@@ -7460,7 +8544,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="46" t="s">
         <v>21</v>
       </c>
@@ -7490,7 +8574,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="46" t="s">
         <v>23</v>
       </c>
@@ -7520,7 +8604,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="49" t="s">
         <v>25</v>
       </c>
@@ -7559,6 +8643,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="15270" divId="2021-09-06-Tables_15270" sourceType="range" sourceRef="A1:J13" destinationFile="C:\Users\nguye\Documents\Thesis\thesis_presentation\assets\tables\ttest_table.htm"/>
   </webPublishItems>
@@ -7579,24 +8664,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="105" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>

--- a/assets/tables/2021-09-06-Tables.xlsx
+++ b/assets/tables/2021-09-06-Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Documents\Thesis\thesis_presentation\assets\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1824AE64-0F95-4C30-B57E-7959C540D9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EADAA72-705F-49B6-B033-B2004EA8AD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{67A94AEB-F11C-4AB3-B28A-F49A4C301124}"/>
+    <workbookView xWindow="38280" yWindow="1875" windowWidth="29040" windowHeight="15840" xr2:uid="{67A94AEB-F11C-4AB3-B28A-F49A4C301124}"/>
   </bookViews>
   <sheets>
     <sheet name="Significant Parameters" sheetId="1" r:id="rId1"/>
@@ -1957,6 +1957,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1975,6 +1997,18 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2002,9 +2036,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,12 +2060,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,59 +2078,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2429,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91BA6C6-4BDC-445B-96BA-58369142A279}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G111" sqref="A83:G111"/>
     </sheetView>
   </sheetViews>
@@ -2472,10 +2472,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2498,8 +2498,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2520,8 +2520,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2564,8 +2564,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2586,8 +2586,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2608,8 +2608,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2630,8 +2630,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2674,8 +2674,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2696,8 +2696,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2718,8 +2718,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2740,8 +2740,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2764,8 +2764,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2786,8 +2786,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2808,8 +2808,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2830,8 +2830,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2852,8 +2852,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2874,8 +2874,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2896,8 +2896,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2918,8 +2918,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
@@ -2940,8 +2940,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="81" t="s">
+      <c r="A23" s="88"/>
+      <c r="B23" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2964,8 +2964,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
@@ -2986,8 +2986,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3008,8 +3008,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="81"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -3030,10 +3030,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="89" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3056,8 +3056,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
@@ -3078,8 +3078,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="89"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
@@ -3100,8 +3100,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
@@ -3122,8 +3122,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
@@ -3144,8 +3144,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
@@ -3166,8 +3166,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81" t="s">
+      <c r="A33" s="89"/>
+      <c r="B33" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3190,8 +3190,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
+      <c r="A34" s="89"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3212,8 +3212,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
+      <c r="A35" s="89"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="1" t="s">
         <v>21</v>
       </c>
@@ -3234,8 +3234,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3256,8 +3256,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="1" t="s">
         <v>23</v>
       </c>
@@ -3278,8 +3278,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
@@ -3300,8 +3300,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
@@ -3322,8 +3322,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="77" t="s">
+      <c r="A40" s="89"/>
+      <c r="B40" s="85" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -3346,8 +3346,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="77"/>
+      <c r="A41" s="89"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
@@ -3368,8 +3368,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="77"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="89" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3416,8 +3416,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="81"/>
-      <c r="B44" s="77" t="s">
+      <c r="A44" s="89"/>
+      <c r="B44" s="85" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3440,8 +3440,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="81"/>
-      <c r="B45" s="77"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
@@ -3462,8 +3462,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="81"/>
-      <c r="B46" s="77" t="s">
+      <c r="A46" s="89"/>
+      <c r="B46" s="85" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3486,8 +3486,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="81"/>
-      <c r="B47" s="77"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="85"/>
       <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
@@ -3508,8 +3508,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="81"/>
-      <c r="B48" s="77"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
@@ -3530,8 +3530,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="77"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="85" t="s">
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3578,7 +3578,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
@@ -3602,7 +3602,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="3" t="s">
         <v>24</v>
       </c>
@@ -3649,13 +3649,13 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="117" t="s">
+      <c r="A57" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="117" t="s">
+      <c r="C57" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="42" t="s">
@@ -3667,14 +3667,14 @@
       <c r="F57" s="42">
         <v>-5.12</v>
       </c>
-      <c r="G57" s="116">
+      <c r="G57" s="83">
         <v>2.9900000000000002E-7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="117"/>
-      <c r="B58" s="117"/>
-      <c r="C58" s="117"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
       <c r="D58" s="42" t="s">
         <v>12</v>
       </c>
@@ -3684,14 +3684,14 @@
       <c r="F58" s="42">
         <v>-3.63</v>
       </c>
-      <c r="G58" s="116">
+      <c r="G58" s="83">
         <v>2.7900000000000001E-4</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="117"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="117"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
       <c r="D59" s="42" t="s">
         <v>13</v>
       </c>
@@ -3701,14 +3701,14 @@
       <c r="F59" s="42">
         <v>3.9</v>
       </c>
-      <c r="G59" s="116">
+      <c r="G59" s="83">
         <v>9.6799999999999995E-5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="117"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="84"/>
       <c r="D60" s="42" t="s">
         <v>14</v>
       </c>
@@ -3718,14 +3718,14 @@
       <c r="F60" s="42">
         <v>2.92</v>
       </c>
-      <c r="G60" s="116">
+      <c r="G60" s="83">
         <v>3.47E-3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="117"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
       <c r="D61" s="42" t="s">
         <v>15</v>
       </c>
@@ -3735,14 +3735,14 @@
       <c r="F61" s="42">
         <v>5.72</v>
       </c>
-      <c r="G61" s="116">
+      <c r="G61" s="83">
         <v>1.07E-8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="117"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="117"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
       <c r="D62" s="42" t="s">
         <v>16</v>
       </c>
@@ -3752,14 +3752,14 @@
       <c r="F62" s="42">
         <v>2.58</v>
       </c>
-      <c r="G62" s="116">
+      <c r="G62" s="83">
         <v>9.8200000000000006E-3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="117"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117" t="s">
+      <c r="A63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="42" t="s">
@@ -3771,14 +3771,14 @@
       <c r="F63" s="42">
         <v>-4.2300000000000004</v>
       </c>
-      <c r="G63" s="116">
+      <c r="G63" s="83">
         <v>2.34E-5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="117"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="42" t="s">
         <v>12</v>
       </c>
@@ -3788,14 +3788,14 @@
       <c r="F64" s="42">
         <v>-4.7699999999999996</v>
       </c>
-      <c r="G64" s="116">
+      <c r="G64" s="83">
         <v>1.81E-6</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="117"/>
-      <c r="B65" s="117"/>
-      <c r="C65" s="117"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="42" t="s">
         <v>13</v>
       </c>
@@ -3805,14 +3805,14 @@
       <c r="F65" s="42">
         <v>4.0599999999999996</v>
       </c>
-      <c r="G65" s="116">
+      <c r="G65" s="83">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="117"/>
-      <c r="B66" s="117"/>
-      <c r="C66" s="117"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="84"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="42" t="s">
         <v>18</v>
       </c>
@@ -3827,9 +3827,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="117"/>
-      <c r="B67" s="117"/>
-      <c r="C67" s="117"/>
+      <c r="A67" s="84"/>
+      <c r="B67" s="84"/>
+      <c r="C67" s="84"/>
       <c r="D67" s="42" t="s">
         <v>15</v>
       </c>
@@ -3839,14 +3839,14 @@
       <c r="F67" s="42">
         <v>3.87</v>
       </c>
-      <c r="G67" s="116">
+      <c r="G67" s="83">
         <v>1.08E-4</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="117"/>
-      <c r="B68" s="117"/>
-      <c r="C68" s="117"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="84"/>
       <c r="D68" s="42" t="s">
         <v>19</v>
       </c>
@@ -3856,16 +3856,16 @@
       <c r="F68" s="42">
         <v>2.91</v>
       </c>
-      <c r="G68" s="116">
+      <c r="G68" s="83">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="117"/>
-      <c r="B69" s="117" t="s">
+      <c r="A69" s="84"/>
+      <c r="B69" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="117" t="s">
+      <c r="C69" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="42" t="s">
@@ -3877,14 +3877,14 @@
       <c r="F69" s="42">
         <v>-3.54</v>
       </c>
-      <c r="G69" s="116">
+      <c r="G69" s="83">
         <v>4.0299999999999998E-4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="117"/>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="84"/>
       <c r="D70" s="42" t="s">
         <v>18</v>
       </c>
@@ -3894,14 +3894,14 @@
       <c r="F70" s="42">
         <v>-4.71</v>
       </c>
-      <c r="G70" s="116">
+      <c r="G70" s="83">
         <v>2.4499999999999998E-6</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="117"/>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="84"/>
       <c r="D71" s="42" t="s">
         <v>22</v>
       </c>
@@ -3911,14 +3911,14 @@
       <c r="F71" s="42">
         <v>4.99</v>
       </c>
-      <c r="G71" s="116">
+      <c r="G71" s="83">
         <v>5.8899999999999999E-7</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="117"/>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117"/>
+      <c r="A72" s="84"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
       <c r="D72" s="42" t="s">
         <v>19</v>
       </c>
@@ -3933,9 +3933,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="117"/>
-      <c r="B73" s="117"/>
-      <c r="C73" s="117" t="s">
+      <c r="A73" s="84"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="42" t="s">
@@ -3952,9 +3952,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="117"/>
-      <c r="B74" s="117"/>
-      <c r="C74" s="117"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
       <c r="D74" s="42" t="s">
         <v>13</v>
       </c>
@@ -3964,14 +3964,14 @@
       <c r="F74" s="42">
         <v>-2.68</v>
       </c>
-      <c r="G74" s="116">
+      <c r="G74" s="83">
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="117"/>
-      <c r="B75" s="117"/>
-      <c r="C75" s="117"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="42" t="s">
         <v>18</v>
       </c>
@@ -3981,14 +3981,14 @@
       <c r="F75" s="42">
         <v>-5.79</v>
       </c>
-      <c r="G75" s="116">
+      <c r="G75" s="83">
         <v>6.8800000000000002E-9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="117"/>
-      <c r="B76" s="117"/>
-      <c r="C76" s="117"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="42" t="s">
         <v>22</v>
       </c>
@@ -3998,14 +3998,14 @@
       <c r="F76" s="42">
         <v>7.01</v>
       </c>
-      <c r="G76" s="116">
+      <c r="G76" s="83">
         <v>2.38E-12</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="117"/>
-      <c r="B77" s="117"/>
-      <c r="C77" s="117"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="42" t="s">
         <v>15</v>
       </c>
@@ -4015,16 +4015,16 @@
       <c r="F77" s="42">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G77" s="116">
+      <c r="G77" s="83">
         <v>9.6899999999999996E-7</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="117"/>
-      <c r="B78" s="117" t="s">
+      <c r="A78" s="84"/>
+      <c r="B78" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="117" t="s">
+      <c r="C78" s="84" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="42" t="s">
@@ -4036,14 +4036,14 @@
       <c r="F78" s="42">
         <v>-4.59</v>
       </c>
-      <c r="G78" s="116">
+      <c r="G78" s="83">
         <v>4.3800000000000004E-6</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="117"/>
-      <c r="B79" s="117"/>
-      <c r="C79" s="117"/>
+      <c r="A79" s="84"/>
+      <c r="B79" s="84"/>
+      <c r="C79" s="84"/>
       <c r="D79" s="42" t="s">
         <v>14</v>
       </c>
@@ -4053,14 +4053,14 @@
       <c r="F79" s="42">
         <v>2.85</v>
       </c>
-      <c r="G79" s="116">
+      <c r="G79" s="83">
         <v>4.3299999999999996E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="117"/>
-      <c r="B80" s="117"/>
-      <c r="C80" s="117"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
       <c r="D80" s="42" t="s">
         <v>26</v>
       </c>
@@ -4075,9 +4075,9 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="117"/>
-      <c r="B81" s="117"/>
-      <c r="C81" s="117"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
       <c r="D81" s="42" t="s">
         <v>18</v>
       </c>
@@ -4100,7 +4100,7 @@
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="118" t="s">
         <v>0</v>
       </c>
@@ -4123,522 +4123,522 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="117" t="s">
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A84" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B84" s="117" t="s">
+      <c r="B84" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="117" t="s">
+      <c r="C84" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="42">
+      <c r="E84" s="57">
         <v>-0.2</v>
       </c>
-      <c r="F84" s="42">
+      <c r="F84" s="57">
         <v>-3.04</v>
       </c>
-      <c r="G84" s="116">
+      <c r="G84" s="120">
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="117"/>
-      <c r="B85" s="117"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="42" t="s">
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A85" s="119"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="42">
+      <c r="E85" s="57">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="F85" s="42">
+      <c r="F85" s="57">
         <v>-2.4</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="57">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="117"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="42" t="s">
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A86" s="119"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="119"/>
+      <c r="D86" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="42">
+      <c r="E86" s="57">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="57">
         <v>4.47</v>
       </c>
-      <c r="G86" s="116">
+      <c r="G86" s="120">
         <v>7.9400000000000002E-6</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="117"/>
-      <c r="B87" s="117"/>
-      <c r="C87" s="117" t="s">
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A87" s="119"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="42">
+      <c r="E87" s="57">
         <v>-0.16700000000000001</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="57">
         <v>-2.58</v>
       </c>
-      <c r="G87" s="116">
+      <c r="G87" s="120">
         <v>9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="117"/>
-      <c r="B88" s="117"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="42" t="s">
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A88" s="119"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="119"/>
+      <c r="D88" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="42">
+      <c r="E88" s="57">
         <v>-0.21299999999999999</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="57">
         <v>-3</v>
       </c>
-      <c r="G88" s="116">
+      <c r="G88" s="120">
         <v>2.7100000000000002E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="117"/>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="42" t="s">
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A89" s="119"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="119"/>
+      <c r="D89" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="42">
+      <c r="E89" s="57">
         <v>0.158</v>
       </c>
-      <c r="F89" s="42">
+      <c r="F89" s="57">
         <v>3.05</v>
       </c>
-      <c r="G89" s="116">
+      <c r="G89" s="120">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="117"/>
-      <c r="B90" s="117" t="s">
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A90" s="119"/>
+      <c r="B90" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="117" t="s">
+      <c r="C90" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="42" t="s">
+      <c r="D90" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="42">
+      <c r="E90" s="57">
         <v>-0.189</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="57">
         <v>-2.84</v>
       </c>
-      <c r="G90" s="116">
+      <c r="G90" s="120">
         <v>4.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="117"/>
-      <c r="B91" s="117"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="42" t="s">
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A91" s="119"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="42">
+      <c r="E91" s="57">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="57">
         <v>2.46</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="57">
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="117"/>
-      <c r="B92" s="117"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="42" t="s">
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A92" s="119"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="42">
+      <c r="E92" s="57">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="F92" s="42">
+      <c r="F92" s="57">
         <v>-3.22</v>
       </c>
-      <c r="G92" s="116">
+      <c r="G92" s="120">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="117"/>
-      <c r="B93" s="117"/>
-      <c r="C93" s="117"/>
-      <c r="D93" s="42" t="s">
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A93" s="119"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="42">
+      <c r="E93" s="57">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F93" s="57">
         <v>4.68</v>
       </c>
-      <c r="G93" s="116">
+      <c r="G93" s="120">
         <v>2.9399999999999998E-6</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="117"/>
-      <c r="B94" s="117"/>
-      <c r="C94" s="117" t="s">
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A94" s="119"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D94" s="42" t="s">
+      <c r="D94" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E94" s="42">
+      <c r="E94" s="57">
         <v>-0.192</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="57">
         <v>-3.89</v>
       </c>
-      <c r="G94" s="116">
+      <c r="G94" s="120">
         <v>1.02E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="117"/>
-      <c r="B95" s="117"/>
-      <c r="C95" s="117"/>
-      <c r="D95" s="42" t="s">
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A95" s="119"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="119"/>
+      <c r="D95" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="42">
+      <c r="E95" s="57">
         <v>0.45500000000000002</v>
       </c>
-      <c r="F95" s="42">
+      <c r="F95" s="57">
         <v>6.6</v>
       </c>
-      <c r="G95" s="116">
+      <c r="G95" s="120">
         <v>4.18E-11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="117"/>
-      <c r="B96" s="117"/>
-      <c r="C96" s="117"/>
-      <c r="D96" s="42" t="s">
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A96" s="119"/>
+      <c r="B96" s="119"/>
+      <c r="C96" s="119"/>
+      <c r="D96" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="42">
+      <c r="E96" s="57">
         <v>0.19800000000000001</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="57">
         <v>4.1399999999999997</v>
       </c>
-      <c r="G96" s="116">
+      <c r="G96" s="120">
         <v>3.4100000000000002E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="117"/>
-      <c r="B97" s="117" t="s">
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A97" s="119"/>
+      <c r="B97" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="117" t="s">
+      <c r="C97" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="42">
+      <c r="E97" s="57">
         <v>-0.26600000000000001</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F97" s="57">
         <v>-4.68</v>
       </c>
-      <c r="G97" s="116">
+      <c r="G97" s="120">
         <v>2.83E-6</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="117"/>
-      <c r="B98" s="117"/>
-      <c r="C98" s="117"/>
-      <c r="D98" s="42" t="s">
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A98" s="119"/>
+      <c r="B98" s="119"/>
+      <c r="C98" s="119"/>
+      <c r="D98" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="42">
+      <c r="E98" s="57">
         <v>0.307</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F98" s="57">
         <v>6.54</v>
       </c>
-      <c r="G98" s="116">
+      <c r="G98" s="120">
         <v>5.9800000000000003E-11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="117"/>
-      <c r="B99" s="117"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="42" t="s">
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A99" s="119"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="42">
+      <c r="E99" s="57">
         <v>0.307</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F99" s="57">
         <v>6.66</v>
       </c>
-      <c r="G99" s="116">
+      <c r="G99" s="120">
         <v>2.8099999999999999E-11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="117" t="s">
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A100" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="B100" s="117" t="s">
+      <c r="B100" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="117" t="s">
+      <c r="C100" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="42" t="s">
+      <c r="D100" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E100" s="42">
+      <c r="E100" s="57">
         <v>0.246</v>
       </c>
-      <c r="F100" s="42">
+      <c r="F100" s="57">
         <v>2.31</v>
       </c>
-      <c r="G100" s="42">
+      <c r="G100" s="57">
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="117"/>
-      <c r="B101" s="117"/>
-      <c r="C101" s="117"/>
-      <c r="D101" s="42" t="s">
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A101" s="119"/>
+      <c r="B101" s="119"/>
+      <c r="C101" s="119"/>
+      <c r="D101" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E101" s="42">
+      <c r="E101" s="57">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="F101" s="42">
+      <c r="F101" s="57">
         <v>-4.0599999999999996</v>
       </c>
-      <c r="G101" s="116">
+      <c r="G101" s="120">
         <v>4.9200000000000003E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="117"/>
-      <c r="B102" s="117" t="s">
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A102" s="119"/>
+      <c r="B102" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="117" t="s">
+      <c r="C102" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="42" t="s">
+      <c r="D102" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="42">
+      <c r="E102" s="57">
         <v>-0.36699999999999999</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F102" s="57">
         <v>-2.44</v>
       </c>
-      <c r="G102" s="42">
+      <c r="G102" s="57">
         <v>1.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="117"/>
-      <c r="B103" s="117"/>
-      <c r="C103" s="117"/>
-      <c r="D103" s="42" t="s">
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A103" s="119"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="119"/>
+      <c r="D103" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E103" s="42">
+      <c r="E103" s="57">
         <v>-0.52800000000000002</v>
       </c>
-      <c r="F103" s="42">
+      <c r="F103" s="57">
         <v>-3.34</v>
       </c>
-      <c r="G103" s="116">
+      <c r="G103" s="120">
         <v>8.52E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="117"/>
-      <c r="B104" s="117"/>
-      <c r="C104" s="42" t="s">
+    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A104" s="119"/>
+      <c r="B104" s="119"/>
+      <c r="C104" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="42">
+      <c r="E104" s="57">
         <v>0.42799999999999999</v>
       </c>
-      <c r="F104" s="42">
+      <c r="F104" s="57">
         <v>3.86</v>
       </c>
-      <c r="G104" s="116">
+      <c r="G104" s="120">
         <v>1.13E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="117"/>
-      <c r="B105" s="117" t="s">
+    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A105" s="119"/>
+      <c r="B105" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="117" t="s">
+      <c r="C105" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="42">
+      <c r="E105" s="57">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F105" s="42">
+      <c r="F105" s="57">
         <v>2.66</v>
       </c>
-      <c r="G105" s="116">
+      <c r="G105" s="120">
         <v>7.8600000000000007E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="117"/>
-      <c r="B106" s="117"/>
-      <c r="C106" s="117"/>
-      <c r="D106" s="42" t="s">
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A106" s="119"/>
+      <c r="B106" s="119"/>
+      <c r="C106" s="119"/>
+      <c r="D106" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="42">
+      <c r="E106" s="57">
         <v>0.47299999999999998</v>
       </c>
-      <c r="F106" s="42">
+      <c r="F106" s="57">
         <v>6.61</v>
       </c>
-      <c r="G106" s="116">
+      <c r="G106" s="120">
         <v>3.8799999999999998E-11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="117"/>
-      <c r="B107" s="117"/>
-      <c r="C107" s="117"/>
-      <c r="D107" s="42" t="s">
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A107" s="119"/>
+      <c r="B107" s="119"/>
+      <c r="C107" s="119"/>
+      <c r="D107" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="42">
+      <c r="E107" s="57">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F107" s="42">
+      <c r="F107" s="57">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G107" s="116">
+      <c r="G107" s="120">
         <v>1.22E-6</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="117"/>
-      <c r="B108" s="117"/>
-      <c r="C108" s="117"/>
-      <c r="D108" s="42" t="s">
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A108" s="119"/>
+      <c r="B108" s="119"/>
+      <c r="C108" s="119"/>
+      <c r="D108" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="42">
+      <c r="E108" s="57">
         <v>-0.26</v>
       </c>
-      <c r="F108" s="42">
+      <c r="F108" s="57">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="G108" s="42">
+      <c r="G108" s="57">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="119" t="s">
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A109" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="120" t="s">
+      <c r="B109" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="120" t="s">
+      <c r="C109" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="120" t="s">
+      <c r="D109" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="120">
+      <c r="E109" s="65">
         <v>-0.41</v>
       </c>
-      <c r="F109" s="120">
+      <c r="F109" s="65">
         <v>-3.61</v>
       </c>
-      <c r="G109" s="121">
+      <c r="G109" s="122">
         <v>3.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="119"/>
-      <c r="B110" s="120" t="s">
+    <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A110" s="121"/>
+      <c r="B110" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C110" s="119" t="s">
+      <c r="C110" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="120" t="s">
+      <c r="D110" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E110" s="120">
+      <c r="E110" s="65">
         <v>0.34599999999999997</v>
       </c>
-      <c r="F110" s="120">
+      <c r="F110" s="65">
         <v>4.78</v>
       </c>
-      <c r="G110" s="121">
+      <c r="G110" s="122">
         <v>1.7999999999999999E-6</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="122"/>
-      <c r="B111" s="123" t="s">
+    <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A111" s="123"/>
+      <c r="B111" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="122"/>
-      <c r="D111" s="123" t="s">
+      <c r="C111" s="123"/>
+      <c r="D111" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="123">
+      <c r="E111" s="56">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F111" s="123">
+      <c r="F111" s="56">
         <v>2.84</v>
       </c>
       <c r="G111" s="124">
@@ -4647,20 +4647,18 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A42"/>
+    <mergeCell ref="A43:A49"/>
     <mergeCell ref="A57:A81"/>
     <mergeCell ref="A84:A99"/>
     <mergeCell ref="A100:A108"/>
@@ -4674,18 +4672,20 @@
     <mergeCell ref="B100:B101"/>
     <mergeCell ref="B102:B104"/>
     <mergeCell ref="B105:B108"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A42"/>
-    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C97:C99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4696,7 +4696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E99939-21DF-48E1-AB6C-F8CCC5640EA0}">
   <dimension ref="A2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -4743,375 +4743,375 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="110">
+      <c r="C3" s="78">
         <v>606</v>
       </c>
-      <c r="D3" s="110">
+      <c r="D3" s="78">
         <v>66</v>
       </c>
-      <c r="E3" s="110">
+      <c r="E3" s="78">
         <v>173</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="78">
         <v>2.62</v>
       </c>
-      <c r="G3" s="110">
+      <c r="G3" s="78">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="H3" s="110">
+      <c r="H3" s="78">
         <v>0.96899999999999997</v>
       </c>
-      <c r="I3" s="110">
+      <c r="I3" s="78">
         <v>0.95299999999999996</v>
       </c>
-      <c r="J3" s="110">
+      <c r="J3" s="78">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="111" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="111">
+      <c r="C4" s="79">
         <v>380</v>
       </c>
-      <c r="D4" s="111">
+      <c r="D4" s="79">
         <v>66</v>
       </c>
-      <c r="E4" s="111">
+      <c r="E4" s="79">
         <v>148</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="79">
         <v>2.2400000000000002</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="79">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="H4" s="111">
+      <c r="H4" s="79">
         <v>0.96199999999999997</v>
       </c>
-      <c r="I4" s="111">
+      <c r="I4" s="79">
         <v>0.94299999999999995</v>
       </c>
-      <c r="J4" s="111">
+      <c r="J4" s="79">
         <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="111" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="79">
         <v>569</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="79">
         <v>65</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="79">
         <v>154</v>
       </c>
-      <c r="F5" s="111">
+      <c r="F5" s="79">
         <v>2.37</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="79">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="79">
         <v>0.97</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="79">
         <v>0.96</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="79">
         <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="79">
         <v>349</v>
       </c>
-      <c r="D6" s="111">
+      <c r="D6" s="79">
         <v>66</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="79">
         <v>81</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="79">
         <v>1.23</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="79">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="79">
         <v>0.98599999999999999</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="79">
         <v>0.97899999999999998</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="79">
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="107"/>
-      <c r="B7" s="111" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="79">
         <v>279</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="79">
         <v>66</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="79">
         <v>86.4</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="79">
         <v>1.31</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="79">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="79">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="79">
         <v>0.97199999999999998</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="79">
         <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="107"/>
-      <c r="B8" s="111" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="79">
         <v>318</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="79">
         <v>65</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="79">
         <v>66.3</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="79">
         <v>1.02</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="79">
         <v>7.8700000000000003E-3</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="79">
         <v>0.999</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="79">
         <v>0.998</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="79">
         <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="79">
         <v>103</v>
       </c>
-      <c r="D9" s="111">
+      <c r="D9" s="79">
         <v>66</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="79">
         <v>75.400000000000006</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="79">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="79">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="79">
         <v>0.97299999999999998</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="79">
         <v>0.95899999999999996</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="79">
         <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="111" t="s">
+      <c r="A10" s="92"/>
+      <c r="B10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="79">
         <v>44</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="79">
         <v>66</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="79">
         <v>33.9</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="79">
         <v>0.51400000000000001</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="79">
         <v>0</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="79">
         <v>1.31</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="79">
         <v>1.47</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="79">
         <v>0.83399999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="111" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="79">
         <v>105</v>
       </c>
-      <c r="D11" s="111">
+      <c r="D11" s="79">
         <v>65</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="79">
         <v>71.2</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11" s="111">
+      <c r="G11" s="79">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="79">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="79">
         <v>0.97699999999999998</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="79">
         <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="81">
         <v>154</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="81">
         <v>66</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="81">
         <v>72.3</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="81">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="81">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H12" s="113">
+      <c r="H12" s="81">
         <v>0.97799999999999998</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="81">
         <v>0.96599999999999997</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="79">
         <v>0.81200000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="113" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="113">
+      <c r="C13" s="81">
         <v>57</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="81">
         <v>66</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="81">
         <v>54.7</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="81">
         <v>0.82899999999999996</v>
       </c>
-      <c r="G13" s="113">
+      <c r="G13" s="81">
         <v>0</v>
       </c>
-      <c r="H13" s="113">
+      <c r="H13" s="81">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I13" s="113">
+      <c r="I13" s="81">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="79">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="115">
+      <c r="C14" s="82">
         <v>146</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="82">
         <v>65</v>
       </c>
-      <c r="E14" s="115">
+      <c r="E14" s="82">
         <v>62.2</v>
       </c>
-      <c r="F14" s="115">
+      <c r="F14" s="82">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G14" s="115">
+      <c r="G14" s="82">
         <v>0</v>
       </c>
-      <c r="H14" s="115">
+      <c r="H14" s="82">
         <v>1.01</v>
       </c>
-      <c r="I14" s="115">
+      <c r="I14" s="82">
         <v>1.01</v>
       </c>
-      <c r="J14" s="112">
+      <c r="J14" s="80">
         <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="106"/>
+      <c r="G22" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5157,7 +5157,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="95" t="s">
         <v>458</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -5177,7 +5177,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="57" t="s">
         <v>38</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="59" t="s">
         <v>39</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="98" t="s">
         <v>463</v>
       </c>
       <c r="B10" s="63" t="s">
@@ -5333,7 +5333,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="59" t="s">
         <v>13</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="100" t="s">
         <v>464</v>
       </c>
       <c r="B12" s="65" t="s">
@@ -5371,7 +5371,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="65" t="s">
         <v>17</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="65" t="s">
         <v>21</v>
       </c>
@@ -5407,7 +5407,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="65" t="s">
         <v>23</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="59" t="s">
         <v>40</v>
       </c>
@@ -5481,66 +5481,66 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90" t="s">
+      <c r="H1" s="102"/>
+      <c r="I1" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90" t="s">
+      <c r="N1" s="102"/>
+      <c r="O1" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90" t="s">
+      <c r="R1" s="102"/>
+      <c r="S1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90" t="s">
+      <c r="T1" s="102"/>
+      <c r="U1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90" t="s">
+      <c r="V1" s="102"/>
+      <c r="W1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90" t="s">
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90" t="s">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90" t="s">
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90" t="s">
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="90"/>
+      <c r="AF1" s="102"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5641,7 +5641,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="102" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -5739,7 +5739,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="10" t="s">
         <v>60</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="10" t="s">
         <v>76</v>
       </c>
@@ -5931,7 +5931,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="102" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -6029,7 +6029,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
@@ -6125,7 +6125,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="90"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
@@ -6221,7 +6221,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="102" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -6319,7 +6319,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
@@ -6415,7 +6415,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
@@ -6511,7 +6511,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="102" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -6609,7 +6609,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -6705,7 +6705,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="11" t="s">
         <v>76</v>
       </c>
@@ -6802,6 +6802,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
@@ -6818,9 +6821,6 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6830,8 +6830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9C7552-9812-4D5B-8A82-1CCD801D489C}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6842,22 +6842,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="41"/>
@@ -6867,26 +6867,26 @@
       <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -6931,7 +6931,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="105" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -6975,7 +6975,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="105" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -7061,7 +7061,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="18" t="s">
         <v>42</v>
       </c>
@@ -7103,7 +7103,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="105" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -7147,7 +7147,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="105" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -7233,7 +7233,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="107"/>
       <c r="B12" s="18" t="s">
         <v>42</v>
       </c>
@@ -7275,7 +7275,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="105" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -7319,7 +7319,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -7405,7 +7405,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
@@ -7447,7 +7447,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="105" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -7491,7 +7491,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
@@ -7533,7 +7533,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="105" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -7577,7 +7577,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="18" t="s">
         <v>42</v>
       </c>
@@ -7619,7 +7619,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="105" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -7663,7 +7663,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
+      <c r="A22" s="107"/>
       <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
@@ -7705,7 +7705,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="105" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -7749,7 +7749,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+      <c r="A24" s="107"/>
       <c r="B24" s="18" t="s">
         <v>42</v>
       </c>
@@ -7791,7 +7791,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="105" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -7835,7 +7835,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
@@ -7877,7 +7877,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="92" t="s">
+      <c r="A27" s="105" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -7921,7 +7921,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="18" t="s">
         <v>42</v>
       </c>
@@ -7963,7 +7963,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="105" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -8007,7 +8007,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="18" t="s">
         <v>42</v>
       </c>
@@ -8049,7 +8049,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="105" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="13" t="s">
@@ -8093,7 +8093,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="18" t="s">
         <v>42</v>
       </c>
@@ -8135,7 +8135,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="105" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -8179,7 +8179,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="14" t="s">
         <v>42</v>
       </c>
@@ -8228,6 +8228,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A21:A22"/>
@@ -8244,10 +8248,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8262,7 +8262,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="A3:J13"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8273,18 +8273,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="104" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
@@ -8330,7 +8330,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="112" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -8362,7 +8362,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
@@ -8392,7 +8392,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="46" t="s">
         <v>21</v>
       </c>
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="48" t="s">
         <v>25</v>
       </c>
@@ -8482,7 +8482,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="115" t="s">
         <v>422</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -8514,7 +8514,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="46" t="s">
         <v>17</v>
       </c>
@@ -8544,7 +8544,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="46" t="s">
         <v>21</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="46" t="s">
         <v>23</v>
       </c>
@@ -8604,7 +8604,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
+      <c r="A13" s="116"/>
       <c r="B13" s="49" t="s">
         <v>25</v>
       </c>
@@ -8655,7 +8655,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="A1:P18"/>
+      <selection activeCell="P18" sqref="A3:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8664,24 +8664,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="117" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
